--- a/ACTUAL TEST SET.xlsx
+++ b/ACTUAL TEST SET.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
